--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H2">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I2">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J2">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07588399999999999</v>
+        <v>0.01631833333333333</v>
       </c>
       <c r="N2">
-        <v>0.227652</v>
+        <v>0.048955</v>
       </c>
       <c r="O2">
-        <v>0.005197207581907008</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="P2">
-        <v>0.005197207581907009</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="Q2">
-        <v>2.800092509411999</v>
+        <v>0.6028704519794444</v>
       </c>
       <c r="R2">
-        <v>25.200832584708</v>
+        <v>5.425834067815</v>
       </c>
       <c r="S2">
-        <v>0.003762230319333421</v>
+        <v>0.0008964594952647334</v>
       </c>
       <c r="T2">
-        <v>0.003762230319333422</v>
+        <v>0.0008964594952647334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H3">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I3">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J3">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>35.15979</v>
       </c>
       <c r="O3">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262294</v>
       </c>
       <c r="P3">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262293</v>
       </c>
       <c r="Q3">
-        <v>432.46123298499</v>
+        <v>432.9853638811633</v>
       </c>
       <c r="R3">
-        <v>3892.15109686491</v>
+        <v>3896.86827493047</v>
       </c>
       <c r="S3">
-        <v>0.5810589318758281</v>
+        <v>0.6438428678789505</v>
       </c>
       <c r="T3">
-        <v>0.5810589318758282</v>
+        <v>0.6438428678789505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H4">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I4">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J4">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.805103666666667</v>
+        <v>3.425042</v>
       </c>
       <c r="N4">
-        <v>8.415311000000001</v>
+        <v>10.275126</v>
       </c>
       <c r="O4">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="P4">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="Q4">
-        <v>103.507323877991</v>
+        <v>126.5359995049687</v>
       </c>
       <c r="R4">
-        <v>931.5659149019191</v>
+        <v>1138.823995544718</v>
       </c>
       <c r="S4">
-        <v>0.1390734023457736</v>
+        <v>0.1881571702122672</v>
       </c>
       <c r="T4">
-        <v>0.1390734023457736</v>
+        <v>0.1881571702122672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07588399999999999</v>
+        <v>0.01631833333333333</v>
       </c>
       <c r="N5">
-        <v>0.227652</v>
+        <v>0.048955</v>
       </c>
       <c r="O5">
-        <v>0.005197207581907008</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="P5">
-        <v>0.005197207581907009</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="Q5">
-        <v>0.256094764996</v>
+        <v>0.05507142138166667</v>
       </c>
       <c r="R5">
-        <v>2.304852884964</v>
+        <v>0.495642792435</v>
       </c>
       <c r="S5">
-        <v>0.0003440913063593189</v>
+        <v>8.189039362142043E-05</v>
       </c>
       <c r="T5">
-        <v>0.000344091306359319</v>
+        <v>8.189039362142041E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>10.124457</v>
       </c>
       <c r="I6">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J6">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>35.15979</v>
       </c>
       <c r="O6">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262294</v>
       </c>
       <c r="P6">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262293</v>
       </c>
       <c r="Q6">
         <v>39.55264244267</v>
@@ -818,10 +818,10 @@
         <v>355.97378198403</v>
       </c>
       <c r="S6">
-        <v>0.05314329798297102</v>
+        <v>0.05881419758444453</v>
       </c>
       <c r="T6">
-        <v>0.05314329798297102</v>
+        <v>0.05881419758444452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>10.124457</v>
       </c>
       <c r="I7">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J7">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.805103666666667</v>
+        <v>3.425042</v>
       </c>
       <c r="N7">
-        <v>8.415311000000001</v>
+        <v>10.275126</v>
       </c>
       <c r="O7">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="P7">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="Q7">
-        <v>9.466717151236335</v>
+        <v>11.558896817398</v>
       </c>
       <c r="R7">
-        <v>85.200454361127</v>
+        <v>104.030071356582</v>
       </c>
       <c r="S7">
-        <v>0.01271956914681157</v>
+        <v>0.01718790956285755</v>
       </c>
       <c r="T7">
-        <v>0.01271956914681157</v>
+        <v>0.01718790956285755</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H8">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I8">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J8">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.07588399999999999</v>
+        <v>0.01631833333333333</v>
       </c>
       <c r="N8">
-        <v>0.227652</v>
+        <v>0.048955</v>
       </c>
       <c r="O8">
-        <v>0.005197207581907008</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="P8">
-        <v>0.005197207581907009</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="Q8">
-        <v>0.8119071229959998</v>
+        <v>0.06588209963722223</v>
       </c>
       <c r="R8">
-        <v>7.307164106963999</v>
+        <v>0.5929388967350001</v>
       </c>
       <c r="S8">
-        <v>0.001090885956214268</v>
+        <v>9.79657131873812E-05</v>
       </c>
       <c r="T8">
-        <v>0.001090885956214269</v>
+        <v>9.796571318738117E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H9">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I9">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J9">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>35.15979</v>
       </c>
       <c r="O9">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262294</v>
       </c>
       <c r="P9">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262293</v>
       </c>
       <c r="Q9">
-        <v>125.39526972767</v>
+        <v>47.31693980193668</v>
       </c>
       <c r="R9">
-        <v>1128.55742754903</v>
+        <v>425.8524582174301</v>
       </c>
       <c r="S9">
-        <v>0.1684822498130606</v>
+        <v>0.0703595935628343</v>
       </c>
       <c r="T9">
-        <v>0.1684822498130606</v>
+        <v>0.07035959356283429</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H10">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I10">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J10">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.805103666666667</v>
+        <v>3.425042</v>
       </c>
       <c r="N10">
-        <v>8.415311000000001</v>
+        <v>10.275126</v>
       </c>
       <c r="O10">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="P10">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="Q10">
-        <v>30.01269895773633</v>
+        <v>13.82794147517134</v>
       </c>
       <c r="R10">
-        <v>270.114290619627</v>
+        <v>124.451473276542</v>
       </c>
       <c r="S10">
-        <v>0.04032534125364791</v>
+        <v>0.02056194559657243</v>
       </c>
       <c r="T10">
-        <v>0.04032534125364791</v>
+        <v>0.02056194559657243</v>
       </c>
     </row>
   </sheetData>
